--- a/medicine/Enfance/Eléonore_Thuillier/Eléonore_Thuillier.xlsx
+++ b/medicine/Enfance/Eléonore_Thuillier/Eléonore_Thuillier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>El%C3%A9onore_Thuillier</t>
+          <t>Eléonore_Thuillier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eléonore Thuillier, née en 1979 à Ganges (Hérault), est une illustratrice française de livres pour enfants.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>El%C3%A9onore_Thuillier</t>
+          <t>Eléonore_Thuillier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir obtenu un bac littéraire, Eléonore Thuillier suit des études d'arts appliqués à Nîmes[1].
-Styliste à l'origine[2], elle travaille au crayon, à la peinture et intervient numériquement sur ses images ensuite.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir obtenu un bac littéraire, Eléonore Thuillier suit des études d'arts appliqués à Nîmes.
+Styliste à l'origine, elle travaille au crayon, à la peinture et intervient numériquement sur ses images ensuite.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>El%C3%A9onore_Thuillier</t>
+          <t>Eléonore_Thuillier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Albums jeunesses
 Le gentil p'tit lapin, texte de Michaël Escoffier, éditions Kaléidoscope, 2009  (ISBN 978-2-211208925).
@@ -588,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>El%C3%A9onore_Thuillier</t>
+          <t>Eléonore_Thuillier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,7 +622,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 * Prix Enfantaisie du meilleur album 2013 au Salon du livre et de la presse de Genève pour Jour de piscine (Editions Kaléidoscope).
